--- a/Textbook Companion/Chapter52/Templates/Combinationstemp.xlsx
+++ b/Textbook Companion/Chapter52/Templates/Combinationstemp.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Microsoft Press\Ch52charting\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter52\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="14352" windowHeight="7992"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,6 +100,1040 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$6:$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1618</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF17-4AB5-ACE6-E16BE1703D1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="444948912"/>
+        <c:axId val="440525944"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$6:$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF17-4AB5-ACE6-E16BE1703D1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="444948912"/>
+        <c:axId val="440525944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444948912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440525944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440525944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444948912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3FAA99-C32D-492C-B474-06EEB64A5D58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -178,6 +1212,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -213,6 +1264,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,19 +1456,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="F5:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H12" sqref="F5:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>7</v>
       </c>
@@ -408,7 +1476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>0</v>
       </c>
@@ -419,7 +1487,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>1</v>
       </c>
@@ -430,7 +1498,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="8" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>2</v>
       </c>
@@ -441,7 +1509,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>3</v>
       </c>
@@ -452,7 +1520,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>4</v>
       </c>
@@ -463,7 +1531,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="11" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>5</v>
       </c>
@@ -474,7 +1542,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>6</v>
       </c>
@@ -489,28 +1557,29 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
